--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,81 +127,247 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>上传-调用autoit上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传图片按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-提交按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_classname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基础配置     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-活动名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='选择商品']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择商品按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-选择商品窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-dialog__body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有classname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>点击-确定按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>com-item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-定金输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-定金金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-秒杀价输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-秒杀价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-总数量输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-总数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-每人限领输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-限领数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-使用说明输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-使用说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀券自动化测试，123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="el-upload el-upload--picture-card"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(text(),'提交')]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-textarea__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-textarea__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-新商品新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='不参加']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-不参加联盟活动按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath当天</t>
+  </si>
+  <si>
+    <t>点击-活动时间开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath推后1个月时间</t>
+  </si>
+  <si>
     <t>点击-活动时间结束日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击-活动时间开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-活动时间开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-券使用开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-range-input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-使用开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/div[3]/div[2]/button[2]/span</t>
-  </si>
-  <si>
-    <t>上传-调用autoit上传图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击上传图片按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-提交按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//span[contains(text(),'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>')]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-range-input</t>
-  </si>
-  <si>
-    <t>输入_classname时间</t>
-  </si>
-  <si>
-    <t>输入_classname</t>
+    <t>点击-使用时间开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-使用时间结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='btns']/button[2]/span</t>
+  </si>
+  <si>
+    <t>if_id不包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='btns']/button[1]/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-取消按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-checkbox__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车</t>
+  </si>
+  <si>
+    <t>操作键盘-回车</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -209,206 +375,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前门店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前门店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-range-input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">基础配置     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-活动名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='选择商品']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-选择商品按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-选择商品窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-dialog__body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_id包含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有classname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_className</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-checkbox__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第一个商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if结束</t>
+    <t>//*[@class='el-row']/div[6]/div[2]/div[1]/div[2]/input[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-row']/div[6]/div[2]/div[1]/div[2]/input[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[7]/div[1]/div[1]/div[2]/input[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-秒杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()='秒杀']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点击_xpath</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="el-button el-button--primary"]/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com-item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-定金输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-定金金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-秒杀价输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-秒杀价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-总数量输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-总数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-每人限领输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-限领数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-使用说明输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-使用说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀券自动化测试，123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="el-upload el-upload--picture-card"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(text(),'提交')]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-textarea__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-textarea__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://101.132.157.87:8080/#/marketing/storeMarket/activityGrab</t>
-  </si>
-  <si>
-    <t>检查点-新商品新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀</t>
-  </si>
-  <si>
-    <t>点击-秒杀</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -514,7 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -890,22 +883,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11">
         <v>5000</v>
@@ -946,7 +939,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -960,14 +953,14 @@
         <v>17</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="D10" s="18" t="s">
-        <v>46</v>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>47</v>
+      <c r="F10" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -986,7 +979,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -995,70 +988,54 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>43388</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>43403</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="15"/>
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1076,77 +1053,64 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
+        <v>94</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="17">
-        <v>43388</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17">
-        <v>43403</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11">
         <v>2000</v>
@@ -1159,16 +1123,16 @@
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1176,290 +1140,290 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B26" s="11"/>
       <c r="D26" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="16">
+        <v>50</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="15">
         <v>0</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="19"/>
+      <c r="E27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>0.01</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>0.02</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0.02</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="E37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
         <v>10</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="13"/>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B44" s="11">
         <v>5000</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="D45" s="18" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="D45" t="s">
+        <v>71</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1476,19 +1440,43 @@
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
-      </c>
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="D48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -396,6 +396,10 @@
   </si>
   <si>
     <t>点击_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[7]/div[1]/div[1]/div[2]/input[2]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1072,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">

--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -295,10 +295,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//span[contains(text(),'提交')]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,6 +396,10 @@
   </si>
   <si>
     <t>//*[@class="el-row"]/div[7]/div[1]/div[1]/div[2]/input[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,14 +889,14 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -972,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1003,43 +1003,43 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1057,35 +1057,35 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1171,7 +1171,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="15" t="s">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="11"/>
       <c r="D29" s="12" t="s">
@@ -1213,11 +1213,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="20"/>
     </row>
@@ -1374,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>66</v>
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B45" s="9"/>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
@@ -1448,7 +1448,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
         <v>31</v>
@@ -1463,7 +1463,7 @@
         <v>34</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>34</v>

--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -399,8 +399,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>

--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -399,7 +399,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>

--- a/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/秒商品-新增进行中的活动.xlsx
@@ -399,7 +399,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\秒杀券上传图片.exe</t>
   </si>
 </sst>
 </file>
